--- a/individual_records.xlsx
+++ b/individual_records.xlsx
@@ -527,19 +527,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6795013643d51f887d4dbb17</t>
+          <t>679b13a8a784660b898cf385</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45683</v>
+        <v>45680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>soham</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45683</v>
+        <v>45680</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45682.86831815972</v>
+        <v>45687.47407572917</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -578,29 +578,33 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>week1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67965bce997f9698e1620e26</t>
+          <t>679b88d1a784660b898cf386</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45675</v>
+        <v>45680</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>soham</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45675</v>
+        <v>45680</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -615,16 +619,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45683.89525762732</v>
+        <v>45687.82122079861</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -639,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -653,30 +657,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>679e1ba6306cf7eea3b56724</t>
+          <t>679cef3ee2c74af3d25e1213</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45697</v>
+        <v>45681</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>soham</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45697</v>
+        <v>45681</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>principal</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45689.77331251158</v>
+        <v>45688.88322653935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -722,19 +722,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>679e23a5306cf7eea3b56725</t>
+          <t>679cf55fe2c74af3d25e1214</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45689</v>
+        <v>45682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>soham</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45689</v>
+        <v>45682</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ooooo</t>
+          <t>Principal</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45689.7970119213</v>
+        <v>45688.90138813658</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>

--- a/individual_records.xlsx
+++ b/individual_records.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,19 +527,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>679b13a8a784660b898cf385</t>
+          <t>6795013643d51f887d4dbb17</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45680</v>
+        <v>45683</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>soham</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45680</v>
+        <v>45683</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45687.47407572917</v>
+        <v>45682.86831815972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -572,39 +572,35 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>week1</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>679b88d1a784660b898cf386</t>
+          <t>67965bce997f9698e1620e26</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45680</v>
+        <v>45675</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>soham</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45680</v>
+        <v>45675</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -619,16 +615,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45687.82122079861</v>
+        <v>45683.89525762732</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -637,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,26 +653,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>679cef3ee2c74af3d25e1213</t>
+          <t>679e1ba6306cf7eea3b56724</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45681</v>
+        <v>45697</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>soham</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45681</v>
+        <v>45697</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45688.88322653935</v>
+        <v>45689.77331251158</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -722,19 +722,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>679cf55fe2c74af3d25e1214</t>
+          <t>679e23a5306cf7eea3b56725</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45682</v>
+        <v>45689</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>soham</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45682</v>
+        <v>45689</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Principal</t>
+          <t>ooooo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45688.90138813658</v>
+        <v>45689.7970119213</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -771,18 +771,152 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
+        <is>
+          <t>week1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6801f43a2619db2478b7a1b2</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>soham</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ks</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45765.27919372685</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>week1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6801f58b39a2cc1ed770615d</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>soham</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>45765.28309561343</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>week1</t>
         </is>
